--- a/input_spreadsheets/testingSpreadsheets/InputForCode_mainTests_RRandORzero.xlsx
+++ b/input_spreadsheets/testingSpreadsheets/InputForCode_mainTests_RRandORzero.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="500" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,22 @@
     <sheet name="OR stunting by intervention" sheetId="16" r:id="rId23"/>
     <sheet name="OR stunting by compfeeding" sheetId="17" r:id="rId24"/>
     <sheet name="OR correctBF by interventn" sheetId="18" r:id="rId25"/>
-    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId26"/>
-    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId27"/>
-    <sheet name="Interventions target population" sheetId="21" r:id="rId28"/>
-    <sheet name="Interventions birth outcome" sheetId="22" r:id="rId29"/>
-    <sheet name="Interventions affected fraction" sheetId="23" r:id="rId30"/>
-    <sheet name="Proportion exposed to malaria" sheetId="33" r:id="rId31"/>
-    <sheet name="Interventions mortality eff" sheetId="24" r:id="rId32"/>
-    <sheet name="Interventions incidence eff" sheetId="25" r:id="rId33"/>
-    <sheet name="Inter. pregnant women aff frac" sheetId="26" r:id="rId34"/>
-    <sheet name="Inter. pregnant women eff" sheetId="27" r:id="rId35"/>
+    <sheet name="Frac anemic poor" sheetId="36" r:id="rId26"/>
+    <sheet name="Frac anemic not poor" sheetId="37" r:id="rId27"/>
+    <sheet name="Appropriate breastfeeding" sheetId="19" r:id="rId28"/>
+    <sheet name="Interventions cost and coverage" sheetId="20" r:id="rId29"/>
+    <sheet name="Interventions target population" sheetId="21" r:id="rId30"/>
+    <sheet name="Interventions birth outcome" sheetId="22" r:id="rId31"/>
+    <sheet name="Interventions affected fraction" sheetId="23" r:id="rId32"/>
+    <sheet name="Proportion exposed to malaria" sheetId="33" r:id="rId33"/>
+    <sheet name="Interventions mortality eff" sheetId="24" r:id="rId34"/>
+    <sheet name="Interventions incidence eff" sheetId="25" r:id="rId35"/>
+    <sheet name="Inter. pregnant women aff frac" sheetId="26" r:id="rId36"/>
+    <sheet name="Inter. pregnant women eff" sheetId="27" r:id="rId37"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId38"/>
+  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -368,6 +373,97 @@
         </r>
       </text>
     </comment>
+    <comment ref="B22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+this should be coverage amongst those exposed to malaria
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+this is baseline coverage of only those who are poor
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+this is baseline coverage of only those who are not poor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+amongst general population
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -490,6 +586,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="G22" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+fraction exposed to malaria - take from spreadsheet value</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="2">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Ruth:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">
+taget only faction poor</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -591,7 +731,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="138">
   <si>
     <t>indicators</t>
   </si>
@@ -968,24 +1108,53 @@
     <t>WRA: cause3</t>
   </si>
   <si>
-    <t>Iron and folic acid for non-pregnant women</t>
-  </si>
-  <si>
-    <t>Food fortification</t>
-  </si>
-  <si>
     <t>IPTp</t>
   </si>
   <si>
     <t>Anenatal micronutrient supplementation</t>
+  </si>
+  <si>
+    <t>general population</t>
+  </si>
+  <si>
+    <t>IFA poor: school</t>
+  </si>
+  <si>
+    <t>IFA poor: community</t>
+  </si>
+  <si>
+    <t>IFA poor: hospital</t>
+  </si>
+  <si>
+    <t>IFA not poor: school</t>
+  </si>
+  <si>
+    <t>IFA not poor: community</t>
+  </si>
+  <si>
+    <t>IFA not poor: hospital</t>
+  </si>
+  <si>
+    <t>IFA not poor: retailer</t>
+  </si>
+  <si>
+    <t>Food fortification maize</t>
+  </si>
+  <si>
+    <t>Food fortification rice</t>
+  </si>
+  <si>
+    <t>Food fortification wheat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1237,7 +1406,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1315,10 +1484,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="15" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="106">
@@ -2469,6 +2662,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="demographics"/>
+      <sheetName val="projected births"/>
+      <sheetName val="projected reproductive age"/>
+      <sheetName val="mortality rates"/>
+      <sheetName val="causes of death"/>
+      <sheetName val="distributions"/>
+      <sheetName val="anemia prevalence"/>
+      <sheetName val="birth outcome distribution"/>
+      <sheetName val="Incidence of conditions"/>
+      <sheetName val="RR death by anemia"/>
+      <sheetName val="RR death by stunting"/>
+      <sheetName val="RR death by wasting"/>
+      <sheetName val="RR death by breastfeeding"/>
+      <sheetName val="RR death by birth outcome"/>
+      <sheetName val="OR stunting progression"/>
+      <sheetName val="RR diarrhoea"/>
+      <sheetName val="OR stunting by condition"/>
+      <sheetName val="OR stunting by birth outcome"/>
+      <sheetName val="RR anemic by intervention"/>
+      <sheetName val="OR anemic by intervention"/>
+      <sheetName val="OR stunting by intervention"/>
+      <sheetName val="OR stunting by compfeeding"/>
+      <sheetName val="OR correctBF by interventn"/>
+      <sheetName val="Appropriate breastfeeding"/>
+      <sheetName val="Interventions cost and coverage"/>
+      <sheetName val="Interventions target population"/>
+      <sheetName val="Interventions birth outcome"/>
+      <sheetName val="Interventions affected fraction"/>
+      <sheetName val="Frac anemic not poor"/>
+      <sheetName val="Frac anemic poor"/>
+      <sheetName val="Frac anemic exposed malaria"/>
+      <sheetName val="Frac exposed malaria"/>
+      <sheetName val="Interventions mortality eff"/>
+      <sheetName val="Interventions incidence eff"/>
+      <sheetName val="Inter. pregnant women aff frac"/>
+      <sheetName val="Inter. pregnant women eff"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="B7">
+            <v>0.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
+        <row r="2">
+          <cell r="F2">
+            <v>0.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2874,15 +3162,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2919,8 +3207,11 @@
       <c r="L1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -2955,6 +3246,9 @@
         <v>0.5</v>
       </c>
       <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
         <v>0.5</v>
       </c>
     </row>
@@ -5696,10 +5990,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5707,7 +6001,7 @@
     <col min="1" max="1" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5747,128 +6041,404 @@
       <c r="M1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>128</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>125</v>
-      </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5879,15 +6449,15 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -5927,46 +6497,140 @@
       <c r="M1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N2" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" s="43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6179,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -6263,6 +6927,200 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -6328,12 +7186,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6676,7 +7534,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
@@ -6690,1162 +7548,148 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
       <c r="C23" s="6">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="D23" s="36">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
       <c r="C24" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D24" s="36">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D25" s="36">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.21</v>
+      </c>
+      <c r="D28" s="36">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D29" s="36">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
         <v>0.85</v>
       </c>
-      <c r="D24" s="36">
-        <v>1</v>
+      <c r="D30" s="36">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D31" s="36">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="D32" s="36">
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="48" customWidth="1"/>
-    <col min="2" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <f>demographics!$B$7</f>
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="4">
-        <f>demographics!$B$7</f>
-        <v>0.4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <f>demographics!$B$7</f>
-        <v>0.4</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-      <c r="M7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="30">
-        <v>0</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="30">
-        <v>0</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="30">
-        <v>0</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="30">
-        <v>0</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="30">
-        <v>0</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0</v>
-      </c>
-      <c r="M13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="30">
-        <v>0</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="29">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="30">
-        <v>0</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="29">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="30">
-        <v>0</v>
-      </c>
-      <c r="C16" s="30">
-        <v>0</v>
-      </c>
-      <c r="D16" s="30">
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="F16" s="30">
-        <v>0</v>
-      </c>
-      <c r="G16" s="29">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="30">
-        <v>0</v>
-      </c>
-      <c r="C17" s="30">
-        <v>0</v>
-      </c>
-      <c r="D17" s="30">
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="F17" s="30">
-        <v>0</v>
-      </c>
-      <c r="G17" s="30">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="30">
-        <v>0</v>
-      </c>
-      <c r="C18" s="30">
-        <v>0</v>
-      </c>
-      <c r="D18" s="30">
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0</v>
-      </c>
-      <c r="G18" s="29">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="30">
-        <v>0</v>
-      </c>
-      <c r="C19" s="30">
-        <v>0</v>
-      </c>
-      <c r="D19" s="30">
-        <v>0</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0</v>
-      </c>
-      <c r="G19" s="29">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="30">
-        <v>0</v>
-      </c>
-      <c r="C20" s="30">
-        <v>0</v>
-      </c>
-      <c r="D20" s="30">
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30">
-        <v>0</v>
-      </c>
-      <c r="G20" s="29">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="41">
-        <v>0</v>
-      </c>
-      <c r="E21" s="41">
-        <v>0</v>
-      </c>
-      <c r="F21" s="41">
-        <v>0</v>
-      </c>
-      <c r="G21" s="36">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="36">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="6">
-        <v>0</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4">
-        <v>1</v>
-      </c>
-      <c r="K23" s="4">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6">
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
-        <v>1</v>
-      </c>
-      <c r="M24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="18">
-        <v>0.21</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0.21</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="18">
-        <f>demographics!$B$6 * 'Interventions target population'!$G$6</f>
-        <v>0.2</v>
-      </c>
-      <c r="D3" s="18">
-        <f>demographics!$B$6 * 'Interventions target population'!$G$6</f>
-        <v>0.2</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0</v>
-      </c>
-      <c r="F3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -8005,6 +7849,1599 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:N33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="44">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44">
+        <v>0</v>
+      </c>
+      <c r="D2" s="44">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44">
+        <v>1</v>
+      </c>
+      <c r="F2" s="44">
+        <v>1</v>
+      </c>
+      <c r="G2" s="44">
+        <v>0</v>
+      </c>
+      <c r="H2" s="44">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44">
+        <v>0</v>
+      </c>
+      <c r="K2" s="44">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
+        <v>0</v>
+      </c>
+      <c r="M2" s="44">
+        <v>0</v>
+      </c>
+      <c r="N2" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0</v>
+      </c>
+      <c r="D3" s="44">
+        <v>1</v>
+      </c>
+      <c r="E3" s="44">
+        <v>1</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+      <c r="H3" s="44">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44">
+        <v>0</v>
+      </c>
+      <c r="J3" s="44">
+        <v>0</v>
+      </c>
+      <c r="K3" s="44">
+        <v>0</v>
+      </c>
+      <c r="L3" s="44">
+        <v>0</v>
+      </c>
+      <c r="M3" s="44">
+        <v>0</v>
+      </c>
+      <c r="N3" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="44">
+        <v>0</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45">
+        <f>[1]demographics!$B$7</f>
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="45">
+        <f>[1]demographics!$B$7</f>
+        <v>0.4</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44">
+        <v>0</v>
+      </c>
+      <c r="J4" s="44">
+        <v>0</v>
+      </c>
+      <c r="K4" s="44">
+        <v>0</v>
+      </c>
+      <c r="L4" s="44">
+        <v>0</v>
+      </c>
+      <c r="M4" s="44">
+        <v>0</v>
+      </c>
+      <c r="N4" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44">
+        <v>0</v>
+      </c>
+      <c r="E5" s="44">
+        <v>0</v>
+      </c>
+      <c r="F5" s="44">
+        <v>0</v>
+      </c>
+      <c r="G5" s="44">
+        <v>1</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="44">
+        <v>0</v>
+      </c>
+      <c r="J5" s="44">
+        <v>0</v>
+      </c>
+      <c r="K5" s="44">
+        <v>0</v>
+      </c>
+      <c r="L5" s="44">
+        <v>0</v>
+      </c>
+      <c r="M5" s="44">
+        <v>0</v>
+      </c>
+      <c r="N5" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="45">
+        <f>[1]demographics!$B$7</f>
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="44">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44">
+        <v>0</v>
+      </c>
+      <c r="K6" s="44">
+        <v>0</v>
+      </c>
+      <c r="L6" s="44">
+        <v>0</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0</v>
+      </c>
+      <c r="N6" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44">
+        <v>0</v>
+      </c>
+      <c r="K7" s="44">
+        <v>0</v>
+      </c>
+      <c r="L7" s="44">
+        <v>0</v>
+      </c>
+      <c r="M7" s="44">
+        <v>0</v>
+      </c>
+      <c r="N7" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="46">
+        <v>0</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44">
+        <v>0</v>
+      </c>
+      <c r="K8" s="44">
+        <v>0</v>
+      </c>
+      <c r="L8" s="44">
+        <v>0</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0</v>
+      </c>
+      <c r="N8" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="46">
+        <v>0</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0</v>
+      </c>
+      <c r="G9" s="46">
+        <v>1</v>
+      </c>
+      <c r="H9" s="44">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44">
+        <v>0</v>
+      </c>
+      <c r="K9" s="44">
+        <v>0</v>
+      </c>
+      <c r="L9" s="44">
+        <v>0</v>
+      </c>
+      <c r="M9" s="44">
+        <v>0</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="46">
+        <v>0</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0</v>
+      </c>
+      <c r="G10" s="46">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
+        <v>0</v>
+      </c>
+      <c r="J10" s="44">
+        <v>0</v>
+      </c>
+      <c r="K10" s="44">
+        <v>0</v>
+      </c>
+      <c r="L10" s="44">
+        <v>0</v>
+      </c>
+      <c r="M10" s="44">
+        <v>0</v>
+      </c>
+      <c r="N10" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="46">
+        <v>0</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0</v>
+      </c>
+      <c r="G11" s="46">
+        <v>1</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44">
+        <v>0</v>
+      </c>
+      <c r="J11" s="44">
+        <v>0</v>
+      </c>
+      <c r="K11" s="44">
+        <v>0</v>
+      </c>
+      <c r="L11" s="44">
+        <v>0</v>
+      </c>
+      <c r="M11" s="44">
+        <v>0</v>
+      </c>
+      <c r="N11" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="46">
+        <v>0</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
+        <v>1</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>0</v>
+      </c>
+      <c r="J12" s="44">
+        <v>0</v>
+      </c>
+      <c r="K12" s="44">
+        <v>0</v>
+      </c>
+      <c r="L12" s="44">
+        <v>0</v>
+      </c>
+      <c r="M12" s="44">
+        <v>0</v>
+      </c>
+      <c r="N12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="46">
+        <v>0</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="44">
+        <v>0</v>
+      </c>
+      <c r="J13" s="44">
+        <v>0</v>
+      </c>
+      <c r="K13" s="44">
+        <v>0</v>
+      </c>
+      <c r="L13" s="44">
+        <v>0</v>
+      </c>
+      <c r="M13" s="44">
+        <v>0</v>
+      </c>
+      <c r="N13" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0</v>
+      </c>
+      <c r="C14" s="46">
+        <v>0</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0</v>
+      </c>
+      <c r="G14" s="47">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44">
+        <v>0</v>
+      </c>
+      <c r="I14" s="44">
+        <v>0</v>
+      </c>
+      <c r="J14" s="44">
+        <v>0</v>
+      </c>
+      <c r="K14" s="44">
+        <v>0</v>
+      </c>
+      <c r="L14" s="44">
+        <v>0</v>
+      </c>
+      <c r="M14" s="44">
+        <v>0</v>
+      </c>
+      <c r="N14" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0</v>
+      </c>
+      <c r="G15" s="47">
+        <v>1</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="44">
+        <v>0</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="44">
+        <v>0</v>
+      </c>
+      <c r="L15" s="44">
+        <v>0</v>
+      </c>
+      <c r="M15" s="44">
+        <v>0</v>
+      </c>
+      <c r="N15" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="46">
+        <v>0</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0</v>
+      </c>
+      <c r="G16" s="47">
+        <v>1</v>
+      </c>
+      <c r="H16" s="44">
+        <v>0</v>
+      </c>
+      <c r="I16" s="44">
+        <v>0</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0</v>
+      </c>
+      <c r="K16" s="44">
+        <v>0</v>
+      </c>
+      <c r="L16" s="44">
+        <v>0</v>
+      </c>
+      <c r="M16" s="44">
+        <v>0</v>
+      </c>
+      <c r="N16" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="46">
+        <v>0</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <v>1</v>
+      </c>
+      <c r="H17" s="44">
+        <v>0</v>
+      </c>
+      <c r="I17" s="44">
+        <v>0</v>
+      </c>
+      <c r="J17" s="44">
+        <v>0</v>
+      </c>
+      <c r="K17" s="44">
+        <v>0</v>
+      </c>
+      <c r="L17" s="44">
+        <v>0</v>
+      </c>
+      <c r="M17" s="44">
+        <v>0</v>
+      </c>
+      <c r="N17" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="46">
+        <v>0</v>
+      </c>
+      <c r="C18" s="46">
+        <v>0</v>
+      </c>
+      <c r="D18" s="46">
+        <v>0</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46">
+        <v>0</v>
+      </c>
+      <c r="G18" s="47">
+        <v>1</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0</v>
+      </c>
+      <c r="I18" s="44">
+        <v>0</v>
+      </c>
+      <c r="J18" s="44">
+        <v>0</v>
+      </c>
+      <c r="K18" s="44">
+        <v>0</v>
+      </c>
+      <c r="L18" s="44">
+        <v>0</v>
+      </c>
+      <c r="M18" s="44">
+        <v>0</v>
+      </c>
+      <c r="N18" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="46">
+        <v>0</v>
+      </c>
+      <c r="C19" s="46">
+        <v>0</v>
+      </c>
+      <c r="D19" s="46">
+        <v>0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>0</v>
+      </c>
+      <c r="G19" s="47">
+        <v>1</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0</v>
+      </c>
+      <c r="I19" s="44">
+        <v>0</v>
+      </c>
+      <c r="J19" s="44">
+        <v>0</v>
+      </c>
+      <c r="K19" s="44">
+        <v>0</v>
+      </c>
+      <c r="L19" s="44">
+        <v>0</v>
+      </c>
+      <c r="M19" s="44">
+        <v>0</v>
+      </c>
+      <c r="N19" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="46">
+        <v>0</v>
+      </c>
+      <c r="C20" s="46">
+        <v>0</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>0</v>
+      </c>
+      <c r="G20" s="47">
+        <v>1</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0</v>
+      </c>
+      <c r="I20" s="44">
+        <v>0</v>
+      </c>
+      <c r="J20" s="44">
+        <v>0</v>
+      </c>
+      <c r="K20" s="44">
+        <v>0</v>
+      </c>
+      <c r="L20" s="44">
+        <v>0</v>
+      </c>
+      <c r="M20" s="44">
+        <v>0</v>
+      </c>
+      <c r="N20" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="44">
+        <v>0</v>
+      </c>
+      <c r="C21" s="44">
+        <v>0</v>
+      </c>
+      <c r="D21" s="48">
+        <v>0</v>
+      </c>
+      <c r="E21" s="48">
+        <v>0</v>
+      </c>
+      <c r="F21" s="48">
+        <v>0</v>
+      </c>
+      <c r="G21" s="49">
+        <v>1</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0</v>
+      </c>
+      <c r="I21" s="44">
+        <v>0</v>
+      </c>
+      <c r="J21" s="44">
+        <v>0</v>
+      </c>
+      <c r="K21" s="44">
+        <v>0</v>
+      </c>
+      <c r="L21" s="44">
+        <v>0</v>
+      </c>
+      <c r="M21" s="44">
+        <v>0</v>
+      </c>
+      <c r="N21" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="50">
+        <v>0</v>
+      </c>
+      <c r="C22" s="50">
+        <v>0</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="51">
+        <f>'[1]Frac exposed malaria'!F2</f>
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0</v>
+      </c>
+      <c r="I22" s="50">
+        <v>0</v>
+      </c>
+      <c r="J22" s="50">
+        <v>0</v>
+      </c>
+      <c r="K22" s="50">
+        <v>0</v>
+      </c>
+      <c r="L22" s="50">
+        <v>0</v>
+      </c>
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+      <c r="N22" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="44">
+        <v>0</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="J23" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="K23" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="L23" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="M23" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="N23" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="44">
+        <v>0</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44">
+        <v>0</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0</v>
+      </c>
+      <c r="G24" s="44">
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="J24" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="K24" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="L24" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="M24" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="N24" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="44">
+        <v>0</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="J25" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="K25" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="L25" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="M25" s="45">
+        <f>1*[1]demographics!B7</f>
+        <v>0.4</v>
+      </c>
+      <c r="N25" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="44">
+        <v>0</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I26" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K26" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L26" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M26" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N26" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="44">
+        <v>0</v>
+      </c>
+      <c r="C27" s="44">
+        <v>0</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0</v>
+      </c>
+      <c r="H27" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I27" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J27" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K27" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L27" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M27" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N27" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="44">
+        <v>0</v>
+      </c>
+      <c r="C28" s="44">
+        <v>0</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0</v>
+      </c>
+      <c r="G28" s="44">
+        <v>0</v>
+      </c>
+      <c r="H28" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I28" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J28" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L28" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M28" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N28" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="44">
+        <v>0</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0</v>
+      </c>
+      <c r="H29" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="I29" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="J29" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="K29" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="L29" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="M29" s="45">
+        <f>1*(1-[1]demographics!B7)</f>
+        <v>0.6</v>
+      </c>
+      <c r="N29" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="50">
+        <v>0</v>
+      </c>
+      <c r="C30" s="50">
+        <v>0</v>
+      </c>
+      <c r="D30" s="50">
+        <v>0</v>
+      </c>
+      <c r="E30" s="50">
+        <v>0</v>
+      </c>
+      <c r="F30" s="50">
+        <v>0</v>
+      </c>
+      <c r="G30" s="50">
+        <v>0</v>
+      </c>
+      <c r="H30" s="50">
+        <v>0</v>
+      </c>
+      <c r="I30" s="50">
+        <v>0</v>
+      </c>
+      <c r="J30" s="50">
+        <v>0</v>
+      </c>
+      <c r="K30" s="50">
+        <v>0</v>
+      </c>
+      <c r="L30" s="50">
+        <v>0</v>
+      </c>
+      <c r="M30" s="50">
+        <v>0</v>
+      </c>
+      <c r="N30" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="50">
+        <v>0</v>
+      </c>
+      <c r="C31" s="50">
+        <v>0</v>
+      </c>
+      <c r="D31" s="50">
+        <v>0</v>
+      </c>
+      <c r="E31" s="50">
+        <v>0</v>
+      </c>
+      <c r="F31" s="50">
+        <v>0</v>
+      </c>
+      <c r="G31" s="50">
+        <v>0</v>
+      </c>
+      <c r="H31" s="50">
+        <v>0</v>
+      </c>
+      <c r="I31" s="50">
+        <v>0</v>
+      </c>
+      <c r="J31" s="50">
+        <v>0</v>
+      </c>
+      <c r="K31" s="50">
+        <v>0</v>
+      </c>
+      <c r="L31" s="50">
+        <v>0</v>
+      </c>
+      <c r="M31" s="50">
+        <v>0</v>
+      </c>
+      <c r="N31" s="50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="50">
+        <v>0</v>
+      </c>
+      <c r="C32" s="50">
+        <v>0</v>
+      </c>
+      <c r="D32" s="50">
+        <v>0</v>
+      </c>
+      <c r="E32" s="50">
+        <v>0</v>
+      </c>
+      <c r="F32" s="50">
+        <v>0</v>
+      </c>
+      <c r="G32" s="50">
+        <v>0</v>
+      </c>
+      <c r="H32" s="50">
+        <v>0</v>
+      </c>
+      <c r="I32" s="50">
+        <v>0</v>
+      </c>
+      <c r="J32" s="50">
+        <v>0</v>
+      </c>
+      <c r="K32" s="50">
+        <v>0</v>
+      </c>
+      <c r="L32" s="50">
+        <v>0</v>
+      </c>
+      <c r="M32" s="50">
+        <v>0</v>
+      </c>
+      <c r="N32" s="50">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="18">
+        <f>demographics!$B$6 * 'Interventions target population'!$G$6</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="18">
+        <f>demographics!$B$6 * 'Interventions target population'!$G$6</f>
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8549,7 +9986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -8641,7 +10078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
@@ -9187,7 +10624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -9292,7 +10729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -9614,7 +11051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -9880,22 +11317,22 @@
       <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -11242,13 +12679,13 @@
       <c r="D2" s="10">
         <v>25</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="42">
         <v>25</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="42">
         <v>25</v>
       </c>
-      <c r="G2" s="43">
+      <c r="G2" s="42">
         <v>25</v>
       </c>
       <c r="H2" s="23"/>
@@ -11263,13 +12700,13 @@
       <c r="D3" s="10">
         <v>25</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="42">
         <v>25</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="42">
         <v>25</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="42">
         <v>25</v>
       </c>
       <c r="H3" s="23"/>
@@ -11284,13 +12721,13 @@
       <c r="D4" s="10">
         <v>25</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="42">
         <v>25</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="42">
         <v>25</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="42">
         <v>25</v>
       </c>
       <c r="H4" s="23"/>
@@ -11305,13 +12742,13 @@
       <c r="D5" s="10">
         <v>25</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>25</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>25</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>25</v>
       </c>
       <c r="H5" s="23"/>
@@ -11589,10 +13026,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11600,51 +13037,54 @@
     <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="41" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O1" s="41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -11687,8 +13127,11 @@
       <c r="N2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>119</v>
       </c>
@@ -11738,6 +13181,9 @@
       </c>
       <c r="N3">
         <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O3">
         <v>50</v>
       </c>
     </row>
